--- a/excel-files/naming-service/TS-DI.xlsx
+++ b/excel-files/naming-service/TS-DI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
   <si>
     <t>Super Section</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>FCT</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Fam</t>
@@ -193,10 +196,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -435,12 +438,29 @@
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
